--- a/transport_cost_pipeline_input.xlsx
+++ b/transport_cost_pipeline_input.xlsx
@@ -520,7 +520,7 @@
         <v>114.1804309664461</v>
       </c>
       <c r="D2" t="n">
-        <v>44.78285204494929</v>
+        <v>522.4666071910751</v>
       </c>
       <c r="E2" t="n">
         <v>59.1528153582676</v>
@@ -532,7 +532,7 @@
         <v>204.3830141523378</v>
       </c>
       <c r="H2" t="n">
-        <v>66.16584453356035</v>
+        <v>771.9348528915375</v>
       </c>
       <c r="I2" t="n">
         <v>9.080803320964016</v>
@@ -544,7 +544,7 @@
         <v>267.7379854171158</v>
       </c>
       <c r="L2" t="n">
-        <v>31.35148565036394</v>
+        <v>365.7673325875793</v>
       </c>
       <c r="M2" t="n">
         <v>4.050886437663749</v>
@@ -568,7 +568,7 @@
         <v>111.7431923312148</v>
       </c>
       <c r="D3" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E3" t="n">
         <v>91.28055191597875</v>
@@ -580,7 +580,7 @@
         <v>204.6742783352674</v>
       </c>
       <c r="H3" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I3" t="n">
         <v>18.56061953110028</v>
@@ -592,7 +592,7 @@
         <v>239.3532810991188</v>
       </c>
       <c r="L3" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M3" t="n">
         <v>8.196554795260949</v>
@@ -616,7 +616,7 @@
         <v>175.1592470175335</v>
       </c>
       <c r="D4" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E4" t="n">
         <v>87.42006282237865</v>
@@ -628,7 +628,7 @@
         <v>295.5074743364789</v>
       </c>
       <c r="H4" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I4" t="n">
         <v>24.95297002542365</v>
@@ -640,7 +640,7 @@
         <v>369.7852270956993</v>
       </c>
       <c r="L4" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M4" t="n">
         <v>11.00353150632801</v>
@@ -664,7 +664,7 @@
         <v>105.1520510630324</v>
       </c>
       <c r="D5" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E5" t="n">
         <v>75.44342750772095</v>
@@ -676,7 +676,7 @@
         <v>188.1260959698033</v>
       </c>
       <c r="H5" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I5" t="n">
         <v>20.57507473701577</v>
@@ -688,7 +688,7 @@
         <v>222.3701890902716</v>
       </c>
       <c r="L5" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M5" t="n">
         <v>8.556259846951795</v>
@@ -712,7 +712,7 @@
         <v>112.1668953862771</v>
       </c>
       <c r="D6" t="n">
-        <v>7.555481853986587</v>
+        <v>88.14728829651018</v>
       </c>
       <c r="E6" t="n">
         <v>61.59953579742017</v>
@@ -724,7 +724,7 @@
         <v>206.4111341186202</v>
       </c>
       <c r="H6" t="n">
-        <v>11.16308620150498</v>
+        <v>130.2360056842248</v>
       </c>
       <c r="I6" t="n">
         <v>11.20474098345734</v>
@@ -736,7 +736,7 @@
         <v>237.6637380197144</v>
       </c>
       <c r="L6" t="n">
-        <v>5.289425976913879</v>
+        <v>61.70996973066192</v>
       </c>
       <c r="M6" t="n">
         <v>4.909524356337299</v>
@@ -760,7 +760,7 @@
         <v>127.639653794831</v>
       </c>
       <c r="D7" t="n">
-        <v>51.37727660710878</v>
+        <v>599.4015604162691</v>
       </c>
       <c r="E7" t="n">
         <v>58.75649655831425</v>
@@ -772,7 +772,7 @@
         <v>226.0691277846852</v>
       </c>
       <c r="H7" t="n">
-        <v>75.90898617023389</v>
+        <v>885.6048386527287</v>
       </c>
       <c r="I7" t="n">
         <v>16.9452487953984</v>
@@ -784,7 +784,7 @@
         <v>278.6237921394727</v>
       </c>
       <c r="L7" t="n">
-        <v>35.96809664301438</v>
+        <v>419.627794168501</v>
       </c>
       <c r="M7" t="n">
         <v>7.598510801999858</v>
@@ -808,7 +808,7 @@
         <v>107.340301305285</v>
       </c>
       <c r="D8" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E8" t="n">
         <v>62.81803854343278</v>
@@ -820,7 +820,7 @@
         <v>187.9789511003904</v>
       </c>
       <c r="H8" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I8" t="n">
         <v>11.40537108069161</v>
@@ -832,7 +832,7 @@
         <v>229.5322147022264</v>
       </c>
       <c r="L8" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M8" t="n">
         <v>4.644070147369064</v>
@@ -856,7 +856,7 @@
         <v>118.4047313385215</v>
       </c>
       <c r="D9" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E9" t="n">
         <v>82.68603467919645</v>
@@ -868,7 +868,7 @@
         <v>215.945015939653</v>
       </c>
       <c r="H9" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I9" t="n">
         <v>20.21875960739287</v>
@@ -880,7 +880,7 @@
         <v>260.8471375027418</v>
       </c>
       <c r="L9" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M9" t="n">
         <v>8.683086780808663</v>
@@ -904,7 +904,7 @@
         <v>234.1912508298564</v>
       </c>
       <c r="D10" t="n">
-        <v>15.11096370797317</v>
+        <v>176.2945765930204</v>
       </c>
       <c r="E10" t="n">
         <v>62.47948604361816</v>
@@ -916,7 +916,7 @@
         <v>386.2643618133818</v>
       </c>
       <c r="H10" t="n">
-        <v>22.32617240300997</v>
+        <v>260.4720113684497</v>
       </c>
       <c r="I10" t="n">
         <v>9.208570929576712</v>
@@ -928,7 +928,7 @@
         <v>494.6331410297164</v>
       </c>
       <c r="L10" t="n">
-        <v>10.57885195382776</v>
+        <v>123.4199394613238</v>
       </c>
       <c r="M10" t="n">
         <v>4.203525031511604</v>
@@ -952,7 +952,7 @@
         <v>108.6219265651252</v>
       </c>
       <c r="D11" t="n">
-        <v>6.799933668587927</v>
+        <v>79.33255946685915</v>
       </c>
       <c r="E11" t="n">
         <v>51.22603554768469</v>
@@ -964,7 +964,7 @@
         <v>193.5092763776642</v>
       </c>
       <c r="H11" t="n">
-        <v>10.04677758135449</v>
+        <v>117.2124051158023</v>
       </c>
       <c r="I11" t="n">
         <v>5.727981207080622</v>
@@ -976,7 +976,7 @@
         <v>237.1814864614144</v>
       </c>
       <c r="L11" t="n">
-        <v>4.760483379222491</v>
+        <v>55.53897275759573</v>
       </c>
       <c r="M11" t="n">
         <v>2.605022477561109</v>
@@ -1000,7 +1000,7 @@
         <v>115.1390697518993</v>
       </c>
       <c r="D12" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E12" t="n">
         <v>86.46773478731079</v>
@@ -1012,7 +1012,7 @@
         <v>207.9232135257894</v>
       </c>
       <c r="H12" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I12" t="n">
         <v>9.283277760330334</v>
@@ -1024,7 +1024,7 @@
         <v>261.613404688491</v>
       </c>
       <c r="L12" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M12" t="n">
         <v>3.904412235823817</v>
@@ -1048,7 +1048,7 @@
         <v>120.0131313735876</v>
       </c>
       <c r="D13" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E13" t="n">
         <v>82.22391531478699</v>
@@ -1060,7 +1060,7 @@
         <v>218.3782402383066</v>
       </c>
       <c r="H13" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I13" t="n">
         <v>29.94278887739336</v>
@@ -1072,7 +1072,7 @@
         <v>257.4640886550799</v>
       </c>
       <c r="L13" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M13" t="n">
         <v>13.44882666240772</v>
@@ -1096,7 +1096,7 @@
         <v>116.8922461755749</v>
       </c>
       <c r="D14" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E14" t="n">
         <v>88.62981363169331</v>
@@ -1108,7 +1108,7 @@
         <v>211.8914448417749</v>
       </c>
       <c r="H14" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I14" t="n">
         <v>17.28306043232869</v>
@@ -1120,7 +1120,7 @@
         <v>245.5712959034711</v>
       </c>
       <c r="L14" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M14" t="n">
         <v>7.543551309335237</v>
@@ -1144,7 +1144,7 @@
         <v>112.1159698510387</v>
       </c>
       <c r="D15" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E15" t="n">
         <v>70.79151872598069</v>
@@ -1156,7 +1156,7 @@
         <v>207.1462243273766</v>
       </c>
       <c r="H15" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I15" t="n">
         <v>18.41085950758701</v>
@@ -1168,7 +1168,7 @@
         <v>270.0965245781965</v>
       </c>
       <c r="L15" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M15" t="n">
         <v>8.094313022723398</v>
@@ -1192,7 +1192,7 @@
         <v>299.9466787243475</v>
       </c>
       <c r="D16" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E16" t="n">
         <v>69.78557562349783</v>
@@ -1204,7 +1204,7 @@
         <v>464.8327288751459</v>
       </c>
       <c r="H16" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I16" t="n">
         <v>14.20087033555607</v>
@@ -1216,7 +1216,7 @@
         <v>606.7486809426217</v>
       </c>
       <c r="L16" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M16" t="n">
         <v>5.725557333335661</v>
@@ -1240,7 +1240,7 @@
         <v>106.3105146765065</v>
       </c>
       <c r="D17" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E17" t="n">
         <v>60.21531661849332</v>
@@ -1252,7 +1252,7 @@
         <v>197.6945377079891</v>
       </c>
       <c r="H17" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I17" t="n">
         <v>11.15056768783191</v>
@@ -1264,7 +1264,7 @@
         <v>235.5854466606328</v>
       </c>
       <c r="L17" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M17" t="n">
         <v>4.876625784713498</v>
@@ -1288,7 +1288,7 @@
         <v>106.0025516187952</v>
       </c>
       <c r="D18" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E18" t="n">
         <v>87.52313250206839</v>
@@ -1300,7 +1300,7 @@
         <v>197.7679947128171</v>
       </c>
       <c r="H18" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I18" t="n">
         <v>15.87206384325846</v>
@@ -1312,7 +1312,7 @@
         <v>230.1109004227405</v>
       </c>
       <c r="L18" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M18" t="n">
         <v>7.030729691023486</v>
@@ -1336,7 +1336,7 @@
         <v>182.9362270731697</v>
       </c>
       <c r="D19" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E19" t="n">
         <v>82.45893053543863</v>
@@ -1348,7 +1348,7 @@
         <v>312.9306737912246</v>
       </c>
       <c r="H19" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I19" t="n">
         <v>14.89557850729635</v>
@@ -1360,7 +1360,7 @@
         <v>390.5172922843798</v>
       </c>
       <c r="L19" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M19" t="n">
         <v>6.057846449799055</v>
@@ -1384,7 +1384,7 @@
         <v>112.3801696502723</v>
       </c>
       <c r="D20" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E20" t="n">
         <v>85.87835332034147</v>
@@ -1396,7 +1396,7 @@
         <v>204.280092354691</v>
       </c>
       <c r="H20" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I20" t="n">
         <v>11.14032979367217</v>
@@ -1408,7 +1408,7 @@
         <v>252.8664425121847</v>
       </c>
       <c r="L20" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M20" t="n">
         <v>4.75050797197607</v>
@@ -1432,7 +1432,7 @@
         <v>105.3769189362941</v>
       </c>
       <c r="D21" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E21" t="n">
         <v>58.69485877756554</v>
@@ -1444,7 +1444,7 @@
         <v>177.1981810636973</v>
       </c>
       <c r="H21" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I21" t="n">
         <v>15.60862785104447</v>
@@ -1456,7 +1456,7 @@
         <v>231.0200097663465</v>
       </c>
       <c r="L21" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M21" t="n">
         <v>7.026945699415906</v>
@@ -1480,7 +1480,7 @@
         <v>109.5427004576419</v>
       </c>
       <c r="D22" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E22" t="n">
         <v>91.29967065169447</v>
@@ -1492,7 +1492,7 @@
         <v>189.8413091219126</v>
       </c>
       <c r="H22" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I22" t="n">
         <v>20.53879626193245</v>
@@ -1504,7 +1504,7 @@
         <v>239.1400640122341</v>
       </c>
       <c r="L22" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M22" t="n">
         <v>9.191188970637809</v>
@@ -1528,7 +1528,7 @@
         <v>100.5468936028377</v>
       </c>
       <c r="D23" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E23" t="n">
         <v>66.01121062654909</v>
@@ -1540,7 +1540,7 @@
         <v>184.3699512428771</v>
       </c>
       <c r="H23" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I23" t="n">
         <v>12.04821778857935</v>
@@ -1552,7 +1552,7 @@
         <v>223.1182455491684</v>
       </c>
       <c r="L23" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M23" t="n">
         <v>4.96988166421616</v>
@@ -1576,7 +1576,7 @@
         <v>86.53293587690882</v>
       </c>
       <c r="D24" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E24" t="n">
         <v>90.33130684058659</v>
@@ -1588,7 +1588,7 @@
         <v>164.4455891782639</v>
       </c>
       <c r="H24" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I24" t="n">
         <v>26.2240010265109</v>
@@ -1600,7 +1600,7 @@
         <v>214.8463766557419</v>
       </c>
       <c r="L24" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M24" t="n">
         <v>11.27085634147058</v>
@@ -1624,7 +1624,7 @@
         <v>107.4199216213783</v>
       </c>
       <c r="D25" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E25" t="n">
         <v>65.8133014658676</v>
@@ -1636,7 +1636,7 @@
         <v>191.8116237326905</v>
       </c>
       <c r="H25" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I25" t="n">
         <v>15.13633478215367</v>
@@ -1648,7 +1648,7 @@
         <v>229.5755875129908</v>
       </c>
       <c r="L25" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M25" t="n">
         <v>6.726896193287675</v>
@@ -1672,7 +1672,7 @@
         <v>113.2570145207479</v>
       </c>
       <c r="D26" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E26" t="n">
         <v>84.17826368537538</v>
@@ -1684,7 +1684,7 @@
         <v>206.44946</v>
       </c>
       <c r="H26" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I26" t="n">
         <v>9.47197267652707</v>
@@ -1696,7 +1696,7 @@
         <v>253.6936286372701</v>
       </c>
       <c r="L26" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M26" t="n">
         <v>3.917056509182141</v>
@@ -1720,7 +1720,7 @@
         <v>139.3335285335463</v>
       </c>
       <c r="D27" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E27" t="n">
         <v>59.81461115523624</v>
@@ -1732,7 +1732,7 @@
         <v>246.5675386012377</v>
       </c>
       <c r="H27" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I27" t="n">
         <v>9.637507192404497</v>
@@ -1744,7 +1744,7 @@
         <v>304.9555641580205</v>
       </c>
       <c r="L27" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M27" t="n">
         <v>4.17110527874462</v>
@@ -1768,7 +1768,7 @@
         <v>118.7985547411651</v>
       </c>
       <c r="D28" t="n">
-        <v>7.555481853986587</v>
+        <v>88.14728829651018</v>
       </c>
       <c r="E28" t="n">
         <v>999999</v>
@@ -1780,7 +1780,7 @@
         <v>198.5349802952272</v>
       </c>
       <c r="H28" t="n">
-        <v>11.16308620150498</v>
+        <v>130.2360056842248</v>
       </c>
       <c r="I28" t="n">
         <v>999999</v>
@@ -1792,7 +1792,7 @@
         <v>258.1512952052067</v>
       </c>
       <c r="L28" t="n">
-        <v>5.289425976913879</v>
+        <v>61.70996973066192</v>
       </c>
       <c r="M28" t="n">
         <v>999999</v>
@@ -1816,7 +1816,7 @@
         <v>98.96258800679982</v>
       </c>
       <c r="D29" t="n">
-        <v>8.311030039385244</v>
+        <v>96.96201712616119</v>
       </c>
       <c r="E29" t="n">
         <v>50.18202399852755</v>
@@ -1828,7 +1828,7 @@
         <v>171.3344024940126</v>
       </c>
       <c r="H29" t="n">
-        <v>12.27939482165548</v>
+        <v>143.2596062526473</v>
       </c>
       <c r="I29" t="n">
         <v>4.949925398834633</v>
@@ -1840,7 +1840,7 @@
         <v>212.4511187633964</v>
       </c>
       <c r="L29" t="n">
-        <v>5.818368574605267</v>
+        <v>67.88096670372812</v>
       </c>
       <c r="M29" t="n">
         <v>2.216636132126386</v>
@@ -1864,7 +1864,7 @@
         <v>115.3752059361811</v>
       </c>
       <c r="D30" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E30" t="n">
         <v>63.25117287180642</v>
@@ -1876,7 +1876,7 @@
         <v>211.4154967492661</v>
       </c>
       <c r="H30" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I30" t="n">
         <v>7.608541416926458</v>
@@ -1888,7 +1888,7 @@
         <v>248.5990469044074</v>
       </c>
       <c r="L30" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M30" t="n">
         <v>3.216352538063008</v>
@@ -1912,7 +1912,7 @@
         <v>135.9406003269172</v>
       </c>
       <c r="D31" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E31" t="n">
         <v>70.89728737073496</v>
@@ -1924,7 +1924,7 @@
         <v>248.5597808805109</v>
       </c>
       <c r="H31" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I31" t="n">
         <v>9.354097963771519</v>
@@ -1936,7 +1936,7 @@
         <v>302.2091093354964</v>
       </c>
       <c r="L31" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M31" t="n">
         <v>4.000103276232094</v>
@@ -1960,7 +1960,7 @@
         <v>626.9403616214498</v>
       </c>
       <c r="D32" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E32" t="n">
         <v>83.3309649526982</v>
@@ -1972,7 +1972,7 @@
         <v>900.095075786756</v>
       </c>
       <c r="H32" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I32" t="n">
         <v>9.12847869291212</v>
@@ -1984,7 +1984,7 @@
         <v>1227.41160211409</v>
       </c>
       <c r="L32" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M32" t="n">
         <v>3.787892850939061</v>
@@ -2008,7 +2008,7 @@
         <v>109.20232423063</v>
       </c>
       <c r="D33" t="n">
-        <v>22.66644556195976</v>
+        <v>264.4418648895305</v>
       </c>
       <c r="E33" t="n">
         <v>52.23685008734675</v>
@@ -2020,7 +2020,7 @@
         <v>193.5662530427172</v>
       </c>
       <c r="H33" t="n">
-        <v>33.48925860451496</v>
+        <v>390.7080170526744</v>
       </c>
       <c r="I33" t="n">
         <v>5.554677482444481</v>
@@ -2032,7 +2032,7 @@
         <v>238.908013190905</v>
       </c>
       <c r="L33" t="n">
-        <v>15.86827793074164</v>
+        <v>185.1299091919858</v>
       </c>
       <c r="M33" t="n">
         <v>2.460583007066651</v>
@@ -2056,7 +2056,7 @@
         <v>116.5902074523244</v>
       </c>
       <c r="D34" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E34" t="n">
         <v>90.2731898444313</v>
@@ -2068,7 +2068,7 @@
         <v>214.2922420147624</v>
       </c>
       <c r="H34" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I34" t="n">
         <v>15.69323423626985</v>
@@ -2080,7 +2080,7 @@
         <v>257.7937414573188</v>
       </c>
       <c r="L34" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M34" t="n">
         <v>6.885400262041888</v>
@@ -2104,7 +2104,7 @@
         <v>104.8386359266161</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23521940784638</v>
+        <v>189.4108930915411</v>
       </c>
       <c r="E35" t="n">
         <v>51.23660017357667</v>
@@ -2116,7 +2116,7 @@
         <v>189.2132750021422</v>
       </c>
       <c r="H35" t="n">
-        <v>23.98723962979391</v>
+        <v>279.8511290142623</v>
       </c>
       <c r="I35" t="n">
         <v>5.394245035291367</v>
@@ -2128,7 +2128,7 @@
         <v>230.7603814216851</v>
       </c>
       <c r="L35" t="n">
-        <v>11.36591853919254</v>
+        <v>132.6023829572463</v>
       </c>
       <c r="M35" t="n">
         <v>2.383713147770188</v>
@@ -2152,7 +2152,7 @@
         <v>102.4118931225232</v>
       </c>
       <c r="D36" t="n">
-        <v>9.066578224783903</v>
+        <v>105.7767459558122</v>
       </c>
       <c r="E36" t="n">
         <v>53.97058405631167</v>
@@ -2164,7 +2164,7 @@
         <v>187.3837996433595</v>
       </c>
       <c r="H36" t="n">
-        <v>13.39570344180598</v>
+        <v>156.2832068210698</v>
       </c>
       <c r="I36" t="n">
         <v>10.44359846045324</v>
@@ -2176,7 +2176,7 @@
         <v>222.4077432231437</v>
       </c>
       <c r="L36" t="n">
-        <v>6.347311172296655</v>
+        <v>74.0519636767943</v>
       </c>
       <c r="M36" t="n">
         <v>4.833689211256821</v>
@@ -2200,7 +2200,7 @@
         <v>119.6799764845554</v>
       </c>
       <c r="D37" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E37" t="n">
         <v>79.41086510020938</v>
@@ -2212,7 +2212,7 @@
         <v>215.4355025936498</v>
       </c>
       <c r="H37" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I37" t="n">
         <v>7.248123683524853</v>
@@ -2224,7 +2224,7 @@
         <v>255.8123379222738</v>
       </c>
       <c r="L37" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M37" t="n">
         <v>3.080825061127589</v>
@@ -2248,7 +2248,7 @@
         <v>138.357307859189</v>
       </c>
       <c r="D38" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E38" t="n">
         <v>56.60303894425685</v>
@@ -2260,7 +2260,7 @@
         <v>242.5151928739106</v>
       </c>
       <c r="H38" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I38" t="n">
         <v>11.42844986273611</v>
@@ -2272,7 +2272,7 @@
         <v>304.599617209525</v>
       </c>
       <c r="L38" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M38" t="n">
         <v>4.969917996243278</v>
@@ -2296,7 +2296,7 @@
         <v>103.7557394829644</v>
       </c>
       <c r="D39" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E39" t="n">
         <v>999999</v>
@@ -2308,7 +2308,7 @@
         <v>180.1637992891904</v>
       </c>
       <c r="H39" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I39" t="n">
         <v>999999</v>
@@ -2320,7 +2320,7 @@
         <v>221.0347435834078</v>
       </c>
       <c r="L39" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M39" t="n">
         <v>999999</v>
@@ -2344,7 +2344,7 @@
         <v>120.2318651369505</v>
       </c>
       <c r="D40" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E40" t="n">
         <v>85.91047598403235</v>
@@ -2356,7 +2356,7 @@
         <v>215.6414008094537</v>
       </c>
       <c r="H40" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I40" t="n">
         <v>8.673443106443186</v>
@@ -2368,7 +2368,7 @@
         <v>278.1824094121471</v>
       </c>
       <c r="L40" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M40" t="n">
         <v>3.627329533063343</v>
@@ -2392,7 +2392,7 @@
         <v>124.2440052842621</v>
       </c>
       <c r="D41" t="n">
-        <v>25.68863830355439</v>
+        <v>299.7007802081346</v>
       </c>
       <c r="E41" t="n">
         <v>64.52493843574644</v>
@@ -2404,7 +2404,7 @@
         <v>231.0589269685751</v>
       </c>
       <c r="H41" t="n">
-        <v>37.95449308511694</v>
+        <v>442.8024193263644</v>
       </c>
       <c r="I41" t="n">
         <v>7.654555385949078</v>
@@ -2416,7 +2416,7 @@
         <v>267.3071925514903</v>
       </c>
       <c r="L41" t="n">
-        <v>17.98404832150719</v>
+        <v>209.8138970842505</v>
       </c>
       <c r="M41" t="n">
         <v>3.253733957965284</v>
@@ -2440,7 +2440,7 @@
         <v>130.783368858013</v>
       </c>
       <c r="D42" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E42" t="n">
         <v>80.06391996268943</v>
@@ -2452,7 +2452,7 @@
         <v>231.3070813832089</v>
       </c>
       <c r="H42" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I42" t="n">
         <v>7.597959406344447</v>
@@ -2464,7 +2464,7 @@
         <v>286.225446557428</v>
       </c>
       <c r="L42" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M42" t="n">
         <v>3.212373396466538</v>
@@ -2488,7 +2488,7 @@
         <v>140.5387926651332</v>
       </c>
       <c r="D43" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E43" t="n">
         <v>63.86252813614895</v>
@@ -2500,7 +2500,7 @@
         <v>235.3465944520364</v>
       </c>
       <c r="H43" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I43" t="n">
         <v>8.364228321753647</v>
@@ -2512,7 +2512,7 @@
         <v>316.0259331873792</v>
       </c>
       <c r="L43" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M43" t="n">
         <v>3.532921785726571</v>
@@ -2536,7 +2536,7 @@
         <v>116.6048354345588</v>
       </c>
       <c r="D44" t="n">
-        <v>7.555481853986587</v>
+        <v>88.14728829651018</v>
       </c>
       <c r="E44" t="n">
         <v>61.25571353752686</v>
@@ -2548,7 +2548,7 @@
         <v>215.1847087471077</v>
       </c>
       <c r="H44" t="n">
-        <v>11.16308620150498</v>
+        <v>130.2360056842248</v>
       </c>
       <c r="I44" t="n">
         <v>11.9568725214274</v>
@@ -2560,7 +2560,7 @@
         <v>247.5041160072429</v>
       </c>
       <c r="L44" t="n">
-        <v>5.289425976913879</v>
+        <v>61.70996973066192</v>
       </c>
       <c r="M44" t="n">
         <v>5.265908247241833</v>
@@ -2584,7 +2584,7 @@
         <v>101.6691683057366</v>
       </c>
       <c r="D45" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E45" t="n">
         <v>52.84130023756173</v>
@@ -2596,7 +2596,7 @@
         <v>175.5546842707874</v>
       </c>
       <c r="H45" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I45" t="n">
         <v>5.446385279361558</v>
@@ -2608,7 +2608,7 @@
         <v>223.1880783813663</v>
       </c>
       <c r="L45" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M45" t="n">
         <v>2.441521678999465</v>
@@ -2632,7 +2632,7 @@
         <v>99.90285648632528</v>
       </c>
       <c r="D46" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E46" t="n">
         <v>79.5599541515834</v>
@@ -2644,7 +2644,7 @@
         <v>185.2307012613109</v>
       </c>
       <c r="H46" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I46" t="n">
         <v>21.04752683967936</v>
@@ -2656,7 +2656,7 @@
         <v>215.449797284545</v>
       </c>
       <c r="L46" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M46" t="n">
         <v>9.224818314236719</v>
@@ -2680,7 +2680,7 @@
         <v>192.644387987089</v>
       </c>
       <c r="D47" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E47" t="n">
         <v>76.69822784449073</v>
@@ -2692,7 +2692,7 @@
         <v>314.6698299139139</v>
       </c>
       <c r="H47" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I47" t="n">
         <v>13.55473530666874</v>
@@ -2704,7 +2704,7 @@
         <v>400.0964558978954</v>
       </c>
       <c r="L47" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M47" t="n">
         <v>5.452293171837577</v>
@@ -2728,7 +2728,7 @@
         <v>168.6321327020844</v>
       </c>
       <c r="D48" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E48" t="n">
         <v>71.7878017856851</v>
@@ -2740,7 +2740,7 @@
         <v>305.2501878563953</v>
       </c>
       <c r="H48" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I48" t="n">
         <v>22.59571804415587</v>
@@ -2752,7 +2752,7 @@
         <v>360.5119615585704</v>
       </c>
       <c r="L48" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M48" t="n">
         <v>9.967722516409459</v>
@@ -2776,7 +2776,7 @@
         <v>105.1968837069571</v>
       </c>
       <c r="D49" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E49" t="n">
         <v>69.73979503041085</v>
@@ -2788,7 +2788,7 @@
         <v>189.4027864293931</v>
       </c>
       <c r="H49" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I49" t="n">
         <v>16.41494794013094</v>
@@ -2800,7 +2800,7 @@
         <v>231.2902782617663</v>
       </c>
       <c r="L49" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M49" t="n">
         <v>6.99376621897488</v>
@@ -2824,7 +2824,7 @@
         <v>123.1838872232148</v>
       </c>
       <c r="D50" t="n">
-        <v>21.03446148149866</v>
+        <v>245.4020506174843</v>
       </c>
       <c r="E50" t="n">
         <v>52.98169576521028</v>
@@ -2836,7 +2836,7 @@
         <v>208.8433909749477</v>
       </c>
       <c r="H50" t="n">
-        <v>31.07803198498987</v>
+        <v>362.5770398248819</v>
       </c>
       <c r="I50" t="n">
         <v>5.272631918718574</v>
@@ -2848,7 +2848,7 @@
         <v>259.5245735810522</v>
       </c>
       <c r="L50" t="n">
-        <v>14.72576191972824</v>
+        <v>171.8005557301628</v>
       </c>
       <c r="M50" t="n">
         <v>2.337983103646642</v>
@@ -2872,7 +2872,7 @@
         <v>86.74364928638332</v>
       </c>
       <c r="D51" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E51" t="n">
         <v>58.08449630321248</v>
@@ -2884,7 +2884,7 @@
         <v>163.0198256418884</v>
       </c>
       <c r="H51" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I51" t="n">
         <v>8.56601165094777</v>
@@ -2896,7 +2896,7 @@
         <v>186.7015153685843</v>
       </c>
       <c r="L51" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M51" t="n">
         <v>3.614948887607906</v>
@@ -2920,7 +2920,7 @@
         <v>97.97967064011715</v>
       </c>
       <c r="D52" t="n">
-        <v>13.59986733717585</v>
+        <v>158.6651189337183</v>
       </c>
       <c r="E52" t="n">
         <v>55.44690870776117</v>
@@ -2932,7 +2932,7 @@
         <v>182.7055597677248</v>
       </c>
       <c r="H52" t="n">
-        <v>20.09355516270897</v>
+        <v>234.4248102316047</v>
       </c>
       <c r="I52" t="n">
         <v>6.78795213209773</v>
@@ -2944,7 +2944,7 @@
         <v>237.9834482633763</v>
       </c>
       <c r="L52" t="n">
-        <v>9.520966758444981</v>
+        <v>111.0779455151915</v>
       </c>
       <c r="M52" t="n">
         <v>2.918028994371695</v>
@@ -2968,7 +2968,7 @@
         <v>146.1810247895368</v>
       </c>
       <c r="D53" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E53" t="n">
         <v>78.34690351126376</v>
@@ -2980,7 +2980,7 @@
         <v>243.1710651991319</v>
       </c>
       <c r="H53" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I53" t="n">
         <v>18.73547985765616</v>
@@ -2992,7 +2992,7 @@
         <v>310.4919892286337</v>
       </c>
       <c r="L53" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M53" t="n">
         <v>7.675258431471105</v>
@@ -3016,7 +3016,7 @@
         <v>135.7177675510415</v>
       </c>
       <c r="D54" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E54" t="n">
         <v>70.22300997681951</v>
@@ -3028,7 +3028,7 @@
         <v>238.6410375812906</v>
       </c>
       <c r="H54" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I54" t="n">
         <v>30.99190900390148</v>
@@ -3040,7 +3040,7 @@
         <v>294.2736104977457</v>
       </c>
       <c r="L54" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M54" t="n">
         <v>14.25426603443028</v>
@@ -3064,7 +3064,7 @@
         <v>115.2618300103628</v>
       </c>
       <c r="D55" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E55" t="n">
         <v>92.04003265385428</v>
@@ -3076,7 +3076,7 @@
         <v>209.9492073444974</v>
       </c>
       <c r="H55" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I55" t="n">
         <v>15.18136231254922</v>
@@ -3088,7 +3088,7 @@
         <v>248.7449913052452</v>
       </c>
       <c r="L55" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M55" t="n">
         <v>6.43861767765563</v>
@@ -3112,7 +3112,7 @@
         <v>92.54355795818103</v>
       </c>
       <c r="D56" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E56" t="n">
         <v>65.25806358330358</v>
@@ -3124,7 +3124,7 @@
         <v>171.7421466417852</v>
       </c>
       <c r="H56" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I56" t="n">
         <v>12.51865330314583</v>
@@ -3136,7 +3136,7 @@
         <v>199.3386250856072</v>
       </c>
       <c r="L56" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M56" t="n">
         <v>5.148850480871176</v>
@@ -3160,7 +3160,7 @@
         <v>110.7907517141002</v>
       </c>
       <c r="D57" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E57" t="n">
         <v>70.85051792973263</v>
@@ -3172,7 +3172,7 @@
         <v>202.4636909841729</v>
       </c>
       <c r="H57" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I57" t="n">
         <v>31.91904052322381</v>
@@ -3184,7 +3184,7 @@
         <v>251.4226237557509</v>
       </c>
       <c r="L57" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M57" t="n">
         <v>14.69357049323291</v>
@@ -3208,7 +3208,7 @@
         <v>99.11163816977893</v>
       </c>
       <c r="D58" t="n">
-        <v>38.98628636657079</v>
+        <v>454.8400076099925</v>
       </c>
       <c r="E58" t="n">
         <v>59.3492823048805</v>
@@ -3220,7 +3220,7 @@
         <v>186.1988700026062</v>
       </c>
       <c r="H58" t="n">
-        <v>57.60152479976573</v>
+        <v>672.0177893306001</v>
       </c>
       <c r="I58" t="n">
         <v>7.883424281282372</v>
@@ -3232,7 +3232,7 @@
         <v>213.6647014145962</v>
       </c>
       <c r="L58" t="n">
-        <v>27.29343804087561</v>
+        <v>318.4234438102155</v>
       </c>
       <c r="M58" t="n">
         <v>3.400766776849075</v>
@@ -3256,7 +3256,7 @@
         <v>111.9989533875234</v>
       </c>
       <c r="D59" t="n">
-        <v>14.35541552257451</v>
+        <v>167.4798477633693</v>
       </c>
       <c r="E59" t="n">
         <v>52.93800052383611</v>
@@ -3268,7 +3268,7 @@
         <v>205.309579438701</v>
       </c>
       <c r="H59" t="n">
-        <v>21.20986378285947</v>
+        <v>247.4484108000271</v>
       </c>
       <c r="I59" t="n">
         <v>5.266322181562061</v>
@@ -3280,7 +3280,7 @@
         <v>248.6546543046763</v>
       </c>
       <c r="L59" t="n">
-        <v>10.04990935613637</v>
+        <v>117.2489424882576</v>
       </c>
       <c r="M59" t="n">
         <v>2.335610460245118</v>
@@ -3304,7 +3304,7 @@
         <v>136.4964514874377</v>
       </c>
       <c r="D60" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E60" t="n">
         <v>91.18419808175169</v>
@@ -3316,7 +3316,7 @@
         <v>241.0812366727869</v>
       </c>
       <c r="H60" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I60" t="n">
         <v>14.23351398246426</v>
@@ -3328,7 +3328,7 @@
         <v>297.6853940637208</v>
       </c>
       <c r="L60" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M60" t="n">
         <v>5.913492628989766</v>
@@ -3352,7 +3352,7 @@
         <v>283.4454094393317</v>
       </c>
       <c r="D61" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E61" t="n">
         <v>74.68555134897029</v>
@@ -3364,7 +3364,7 @@
         <v>447.4983588800827</v>
       </c>
       <c r="H61" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I61" t="n">
         <v>13.50508690514239</v>
@@ -3376,7 +3376,7 @@
         <v>577.8418801700161</v>
       </c>
       <c r="L61" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M61" t="n">
         <v>5.481016572123671</v>
@@ -3400,7 +3400,7 @@
         <v>119.9322993489963</v>
       </c>
       <c r="D62" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E62" t="n">
         <v>84.98730856181612</v>
@@ -3412,7 +3412,7 @@
         <v>203.579736841294</v>
       </c>
       <c r="H62" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I62" t="n">
         <v>13.96172328689265</v>
@@ -3424,7 +3424,7 @@
         <v>258.8443189276545</v>
       </c>
       <c r="L62" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M62" t="n">
         <v>6.227698305098948</v>
@@ -3448,7 +3448,7 @@
         <v>110.0269391556743</v>
       </c>
       <c r="D63" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E63" t="n">
         <v>80.99567163474188</v>
@@ -3460,7 +3460,7 @@
         <v>187.194234819871</v>
       </c>
       <c r="H63" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I63" t="n">
         <v>10.48283148476857</v>
@@ -3472,7 +3472,7 @@
         <v>237.8936241516984</v>
       </c>
       <c r="L63" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M63" t="n">
         <v>4.663222403159041</v>
@@ -3496,7 +3496,7 @@
         <v>92.94046537207208</v>
       </c>
       <c r="D64" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E64" t="n">
         <v>66.08989998529226</v>
@@ -3508,7 +3508,7 @@
         <v>174.3842129209353</v>
       </c>
       <c r="H64" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I64" t="n">
         <v>13.72423686916992</v>
@@ -3520,7 +3520,7 @@
         <v>201.0416220467114</v>
       </c>
       <c r="L64" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M64" t="n">
         <v>5.881649184734559</v>
@@ -3544,7 +3544,7 @@
         <v>179.5564852138098</v>
       </c>
       <c r="D65" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E65" t="n">
         <v>62.22128030049252</v>
@@ -3556,7 +3556,7 @@
         <v>314.3929799999999</v>
       </c>
       <c r="H65" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I65" t="n">
         <v>11.68075237756404</v>
@@ -3568,7 +3568,7 @@
         <v>386.446228483741</v>
       </c>
       <c r="L65" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M65" t="n">
         <v>5.112036125384225</v>
@@ -3592,7 +3592,7 @@
         <v>90.44826647689158</v>
       </c>
       <c r="D66" t="n">
-        <v>33.0658107857869</v>
+        <v>385.7677925008472</v>
       </c>
       <c r="E66" t="n">
         <v>55.67636166972133</v>
@@ -3604,7 +3604,7 @@
         <v>168.3341005675747</v>
       </c>
       <c r="H66" t="n">
-        <v>48.8541304522664</v>
+        <v>569.9648552764414</v>
       </c>
       <c r="I66" t="n">
         <v>7.849041170977724</v>
@@ -3616,7 +3616,7 @@
         <v>195.946317689072</v>
       </c>
       <c r="L66" t="n">
-        <v>23.1486438453659</v>
+        <v>270.0675115292688</v>
       </c>
       <c r="M66" t="n">
         <v>3.493563832545705</v>
@@ -3640,7 +3640,7 @@
         <v>132.2612615257369</v>
       </c>
       <c r="D67" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E67" t="n">
         <v>90.77817679956777</v>
@@ -3652,7 +3652,7 @@
         <v>234.0800094207911</v>
       </c>
       <c r="H67" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I67" t="n">
         <v>12.91493679506747</v>
@@ -3664,7 +3664,7 @@
         <v>293.6347259031366</v>
       </c>
       <c r="L67" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M67" t="n">
         <v>5.284556409911744</v>
@@ -3688,7 +3688,7 @@
         <v>113.7144670938578</v>
       </c>
       <c r="D68" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E68" t="n">
         <v>84.22381097631092</v>
@@ -3700,7 +3700,7 @@
         <v>210.8172487403753</v>
       </c>
       <c r="H68" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I68" t="n">
         <v>22.97177347014886</v>
@@ -3712,7 +3712,7 @@
         <v>252.5994729685446</v>
       </c>
       <c r="L68" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M68" t="n">
         <v>9.991850869746344</v>
@@ -3736,7 +3736,7 @@
         <v>87.26449241031935</v>
       </c>
       <c r="D69" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E69" t="n">
         <v>86.22855765274862</v>
@@ -3748,7 +3748,7 @@
         <v>165.3242095209766</v>
       </c>
       <c r="H69" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I69" t="n">
         <v>12.72000010631418</v>
@@ -3760,7 +3760,7 @@
         <v>202.9953911424863</v>
       </c>
       <c r="L69" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M69" t="n">
         <v>5.381427915591996</v>
@@ -3784,7 +3784,7 @@
         <v>97.09498687193673</v>
       </c>
       <c r="D70" t="n">
-        <v>9.066578224783903</v>
+        <v>105.7767459558122</v>
       </c>
       <c r="E70" t="n">
         <v>50.72120051352172</v>
@@ -3796,7 +3796,7 @@
         <v>159.5061424160622</v>
       </c>
       <c r="H70" t="n">
-        <v>13.39570344180598</v>
+        <v>156.2832068210698</v>
       </c>
       <c r="I70" t="n">
         <v>5.976696108585045</v>
@@ -3808,7 +3808,7 @@
         <v>205.0206135409458</v>
       </c>
       <c r="L70" t="n">
-        <v>6.347311172296655</v>
+        <v>74.0519636767943</v>
       </c>
       <c r="M70" t="n">
         <v>2.724581124994243</v>
@@ -3832,7 +3832,7 @@
         <v>114.6048291388741</v>
       </c>
       <c r="D71" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E71" t="n">
         <v>87.83169138099839</v>
@@ -3844,7 +3844,7 @@
         <v>202.7561781852293</v>
       </c>
       <c r="H71" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I71" t="n">
         <v>16.25015526441657</v>
@@ -3856,7 +3856,7 @@
         <v>247.5864315153832</v>
       </c>
       <c r="L71" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M71" t="n">
         <v>7.205553852335602</v>
@@ -3880,7 +3880,7 @@
         <v>107.5870770395787</v>
       </c>
       <c r="D72" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E72" t="n">
         <v>85.99657020749804</v>
@@ -3892,7 +3892,7 @@
         <v>198.6723291202356</v>
       </c>
       <c r="H72" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I72" t="n">
         <v>13.71991057548055</v>
@@ -3904,7 +3904,7 @@
         <v>234.7543296618285</v>
       </c>
       <c r="L72" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M72" t="n">
         <v>5.999785163777147</v>
@@ -3928,7 +3928,7 @@
         <v>89.3185207773809</v>
       </c>
       <c r="D73" t="n">
-        <v>23.78465687634977</v>
+        <v>277.4876635574141</v>
       </c>
       <c r="E73" t="n">
         <v>50.22626133872673</v>
@@ -3940,7 +3940,7 @@
         <v>145.2946162735269</v>
       </c>
       <c r="H73" t="n">
-        <v>35.1413953623377</v>
+        <v>409.9829458939398</v>
       </c>
       <c r="I73" t="n">
         <v>5.235681374486192</v>
@@ -3952,7 +3952,7 @@
         <v>187.1950734726381</v>
       </c>
       <c r="L73" t="n">
-        <v>16.65111297532489</v>
+        <v>194.2629847121238</v>
       </c>
       <c r="M73" t="n">
         <v>2.363069876350841</v>
@@ -3976,7 +3976,7 @@
         <v>96.08487904089894</v>
       </c>
       <c r="D74" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E74" t="n">
         <v>67.83317038538698</v>
@@ -3988,7 +3988,7 @@
         <v>173.9222484146936</v>
       </c>
       <c r="H74" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I74" t="n">
         <v>18.11323835225774</v>
@@ -4000,7 +4000,7 @@
         <v>207.4507922418024</v>
       </c>
       <c r="L74" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M74" t="n">
         <v>7.932941095363504</v>
@@ -4024,7 +4024,7 @@
         <v>127.5743212872947</v>
       </c>
       <c r="D75" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E75" t="n">
         <v>88.46376178269338</v>
@@ -4036,7 +4036,7 @@
         <v>237.259311770206</v>
       </c>
       <c r="H75" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I75" t="n">
         <v>21.80721350680761</v>
@@ -4048,7 +4048,7 @@
         <v>290.4842527383923</v>
       </c>
       <c r="L75" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M75" t="n">
         <v>9.610118573173875</v>
@@ -4072,7 +4072,7 @@
         <v>168.1444718811024</v>
       </c>
       <c r="D76" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E76" t="n">
         <v>83.14877034106328</v>
@@ -4084,7 +4084,7 @@
         <v>266.6965516790912</v>
       </c>
       <c r="H76" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I76" t="n">
         <v>15.7929585529565</v>
@@ -4096,7 +4096,7 @@
         <v>349.0918880865531</v>
       </c>
       <c r="L76" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M76" t="n">
         <v>6.293929754268382</v>
@@ -4120,7 +4120,7 @@
         <v>145.172459032958</v>
       </c>
       <c r="D77" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E77" t="n">
         <v>73.69608449380715</v>
@@ -4132,7 +4132,7 @@
         <v>258.2981929489122</v>
       </c>
       <c r="H77" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I77" t="n">
         <v>20.07621821404268</v>
@@ -4144,7 +4144,7 @@
         <v>317.8261583697383</v>
       </c>
       <c r="L77" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M77" t="n">
         <v>8.886923747782372</v>
@@ -4168,7 +4168,7 @@
         <v>98.91920381961184</v>
       </c>
       <c r="D78" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E78" t="n">
         <v>67.66697810396614</v>
@@ -4180,7 +4180,7 @@
         <v>185.5904609324064</v>
       </c>
       <c r="H78" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I78" t="n">
         <v>16.62351363662418</v>
@@ -4192,7 +4192,7 @@
         <v>213.1735281122893</v>
       </c>
       <c r="L78" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M78" t="n">
         <v>7.315491000012853</v>
@@ -4216,7 +4216,7 @@
         <v>150.411645939615</v>
       </c>
       <c r="D79" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E79" t="n">
         <v>79.13195694202116</v>
@@ -4228,7 +4228,7 @@
         <v>257.4750394406014</v>
       </c>
       <c r="H79" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I79" t="n">
         <v>16.28638314127479</v>
@@ -4240,7 +4240,7 @@
         <v>320.1517068408077</v>
       </c>
       <c r="L79" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M79" t="n">
         <v>6.647187740619724</v>
@@ -4264,7 +4264,7 @@
         <v>113.1867837050926</v>
       </c>
       <c r="D80" t="n">
-        <v>7.555481853986587</v>
+        <v>88.14728829651018</v>
       </c>
       <c r="E80" t="n">
         <v>54.12604714826274</v>
@@ -4276,7 +4276,7 @@
         <v>185.8813081504896</v>
       </c>
       <c r="H80" t="n">
-        <v>11.16308620150498</v>
+        <v>130.2360056842248</v>
       </c>
       <c r="I80" t="n">
         <v>8.459609210177911</v>
@@ -4288,7 +4288,7 @@
         <v>240.327319082296</v>
       </c>
       <c r="L80" t="n">
-        <v>5.289425976913879</v>
+        <v>61.70996973066192</v>
       </c>
       <c r="M80" t="n">
         <v>3.861253973773494</v>
@@ -4312,7 +4312,7 @@
         <v>96.6210521194256</v>
       </c>
       <c r="D81" t="n">
-        <v>28.71083104514903</v>
+        <v>334.9596955267386</v>
       </c>
       <c r="E81" t="n">
         <v>54.59115333560311</v>
@@ -4324,7 +4324,7 @@
         <v>181.564891706369</v>
       </c>
       <c r="H81" t="n">
-        <v>42.41972756571894</v>
+        <v>494.8968216000543</v>
       </c>
       <c r="I81" t="n">
         <v>5.618182240296712</v>
@@ -4336,7 +4336,7 @@
         <v>238.7949439911663</v>
       </c>
       <c r="L81" t="n">
-        <v>20.09981871227274</v>
+        <v>234.4978849765153</v>
       </c>
       <c r="M81" t="n">
         <v>2.469677200243433</v>
@@ -4360,7 +4360,7 @@
         <v>84.94732998814872</v>
       </c>
       <c r="D82" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E82" t="n">
         <v>62.88061473725887</v>
@@ -4372,7 +4372,7 @@
         <v>158.5575171849306</v>
       </c>
       <c r="H82" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I82" t="n">
         <v>11.57877276518123</v>
@@ -4384,7 +4384,7 @@
         <v>189.6478428741733</v>
       </c>
       <c r="L82" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M82" t="n">
         <v>4.73073522484211</v>
@@ -4408,7 +4408,7 @@
         <v>135.685396513703</v>
       </c>
       <c r="D83" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E83" t="n">
         <v>78.9619432703019</v>
@@ -4420,7 +4420,7 @@
         <v>229.9860110447615</v>
       </c>
       <c r="H83" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I83" t="n">
         <v>18.90449621106994</v>
@@ -4432,7 +4432,7 @@
         <v>295.3701524939497</v>
       </c>
       <c r="L83" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M83" t="n">
         <v>7.772062626216965</v>
@@ -4456,7 +4456,7 @@
         <v>112.9943196914071</v>
       </c>
       <c r="D84" t="n">
-        <v>16.62206007877049</v>
+        <v>193.9240342523224</v>
       </c>
       <c r="E84" t="n">
         <v>59.71865857826847</v>
@@ -4468,7 +4468,7 @@
         <v>208.8945568655446</v>
       </c>
       <c r="H84" t="n">
-        <v>24.55878964331097</v>
+        <v>286.5192125052946</v>
       </c>
       <c r="I84" t="n">
         <v>9.464566322103289</v>
@@ -4480,7 +4480,7 @@
         <v>251.4156679060091</v>
       </c>
       <c r="L84" t="n">
-        <v>11.63673714921053</v>
+        <v>135.7619334074562</v>
       </c>
       <c r="M84" t="n">
         <v>4.06196210980845</v>
@@ -4504,7 +4504,7 @@
         <v>184.5552181546333</v>
       </c>
       <c r="D85" t="n">
-        <v>74.34594144322803</v>
+        <v>867.3693168376603</v>
       </c>
       <c r="E85" t="n">
         <v>70.37075976009758</v>
@@ -4516,7 +4516,7 @@
         <v>312.2922871619193</v>
       </c>
       <c r="H85" t="n">
-        <v>109.8447682228091</v>
+        <v>1281.522295932772</v>
       </c>
       <c r="I85" t="n">
         <v>19.2893046345547</v>
@@ -4528,7 +4528,7 @@
         <v>396.1722428181212</v>
       </c>
       <c r="L85" t="n">
-        <v>52.04795161283256</v>
+        <v>607.2261021497133</v>
       </c>
       <c r="M85" t="n">
         <v>8.709225239205416</v>
@@ -4552,7 +4552,7 @@
         <v>94.60734486994433</v>
       </c>
       <c r="D86" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E86" t="n">
         <v>64.76889781687619</v>
@@ -4564,7 +4564,7 @@
         <v>172.7106132331139</v>
       </c>
       <c r="H86" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I86" t="n">
         <v>16.17816755297293</v>
@@ -4576,7 +4576,7 @@
         <v>205.0255133196776</v>
       </c>
       <c r="L86" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M86" t="n">
         <v>7.146735339311222</v>
@@ -4600,7 +4600,7 @@
         <v>109.384479411061</v>
       </c>
       <c r="D87" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E87" t="n">
         <v>79.22516594552604</v>
@@ -4612,7 +4612,7 @@
         <v>201.0276008179783</v>
       </c>
       <c r="H87" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I87" t="n">
         <v>7.14864531690939</v>
@@ -4624,7 +4624,7 @@
         <v>234.8647890707186</v>
       </c>
       <c r="L87" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M87" t="n">
         <v>3.043418322258756</v>
@@ -4648,7 +4648,7 @@
         <v>367.5112253352897</v>
       </c>
       <c r="D88" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E88" t="n">
         <v>73.44810926192095</v>
@@ -4660,7 +4660,7 @@
         <v>552.3412439284158</v>
       </c>
       <c r="H88" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I88" t="n">
         <v>13.206819706737</v>
@@ -4672,7 +4672,7 @@
         <v>732.7406139737699</v>
       </c>
       <c r="L88" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M88" t="n">
         <v>5.321466858159278</v>
@@ -4696,7 +4696,7 @@
         <v>112.2998817492491</v>
       </c>
       <c r="D89" t="n">
-        <v>8.311030039385244</v>
+        <v>96.96201712616119</v>
       </c>
       <c r="E89" t="n">
         <v>59.25587288445666</v>
@@ -4708,7 +4708,7 @@
         <v>206.6199525156748</v>
       </c>
       <c r="H89" t="n">
-        <v>12.27939482165548</v>
+        <v>143.2596062526473</v>
       </c>
       <c r="I89" t="n">
         <v>11.63906689932803</v>
@@ -4720,7 +4720,7 @@
         <v>238.6514050326836</v>
       </c>
       <c r="L89" t="n">
-        <v>5.818368574605267</v>
+        <v>67.88096670372812</v>
       </c>
       <c r="M89" t="n">
         <v>5.115321815963079</v>
@@ -4744,7 +4744,7 @@
         <v>112.7518539442891</v>
       </c>
       <c r="D90" t="n">
-        <v>4.533289112391952</v>
+        <v>52.88837297790611</v>
       </c>
       <c r="E90" t="n">
         <v>59.05859800678787</v>
@@ -4756,7 +4756,7 @@
         <v>209.64721</v>
       </c>
       <c r="H90" t="n">
-        <v>6.697851720902991</v>
+        <v>78.14160341053488</v>
       </c>
       <c r="I90" t="n">
         <v>8.542444884427187</v>
@@ -4768,7 +4768,7 @@
         <v>250.5444375027944</v>
       </c>
       <c r="L90" t="n">
-        <v>3.173655586148327</v>
+        <v>37.02598183839715</v>
       </c>
       <c r="M90" t="n">
         <v>3.648073880750498</v>
@@ -4792,7 +4792,7 @@
         <v>90.69481996120493</v>
       </c>
       <c r="D91" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E91" t="n">
         <v>90.58222892967089</v>
@@ -4804,7 +4804,7 @@
         <v>168.2453625719424</v>
       </c>
       <c r="H91" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I91" t="n">
         <v>16.59916856431397</v>
@@ -4816,7 +4816,7 @@
         <v>196.3479403238616</v>
       </c>
       <c r="L91" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M91" t="n">
         <v>7.055369809164141</v>
@@ -4840,7 +4840,7 @@
         <v>89.8417260842766</v>
       </c>
       <c r="D92" t="n">
-        <v>33.24412015754098</v>
+        <v>387.8480685046447</v>
       </c>
       <c r="E92" t="n">
         <v>57.41167443170634</v>
@@ -4852,7 +4852,7 @@
         <v>170.0065527421837</v>
       </c>
       <c r="H92" t="n">
-        <v>49.11757928662193</v>
+        <v>573.0384250105892</v>
       </c>
       <c r="I92" t="n">
         <v>10.83127100697409</v>
@@ -4864,7 +4864,7 @@
         <v>193.7552481644677</v>
       </c>
       <c r="L92" t="n">
-        <v>23.27347429842107</v>
+        <v>271.5238668149125</v>
       </c>
       <c r="M92" t="n">
         <v>4.905163617808702</v>
@@ -4888,7 +4888,7 @@
         <v>112.1193943881938</v>
       </c>
       <c r="D93" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E93" t="n">
         <v>88.72282844206438</v>
@@ -4900,7 +4900,7 @@
         <v>205.0619432958005</v>
       </c>
       <c r="H93" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I93" t="n">
         <v>17.30977342018648</v>
@@ -4912,7 +4912,7 @@
         <v>241.5075921970727</v>
       </c>
       <c r="L93" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M93" t="n">
         <v>7.693337858754957</v>
@@ -4936,7 +4936,7 @@
         <v>106.2741993096734</v>
       </c>
       <c r="D94" t="n">
-        <v>9.731460627934723</v>
+        <v>113.5337073259051</v>
       </c>
       <c r="E94" t="n">
         <v>52.37723648226662</v>
@@ -4948,7 +4948,7 @@
         <v>183.9173151566242</v>
       </c>
       <c r="H94" t="n">
-        <v>14.37805502753842</v>
+        <v>167.7439753212815</v>
       </c>
       <c r="I94" t="n">
         <v>8.347826073952476</v>
@@ -4960,7 +4960,7 @@
         <v>230.5379411759553</v>
       </c>
       <c r="L94" t="n">
-        <v>6.812780658265075</v>
+        <v>79.48244101309254</v>
       </c>
       <c r="M94" t="n">
         <v>3.837727466525806</v>
@@ -4984,7 +4984,7 @@
         <v>104.0169954391398</v>
       </c>
       <c r="D95" t="n">
-        <v>8.311030039385244</v>
+        <v>96.96201712616119</v>
       </c>
       <c r="E95" t="n">
         <v>56.22899843322798</v>
@@ -4996,7 +4996,7 @@
         <v>194.31876</v>
       </c>
       <c r="H95" t="n">
-        <v>12.27939482165548</v>
+        <v>143.2596062526473</v>
       </c>
       <c r="I95" t="n">
         <v>10.84697958574243</v>
@@ -5008,7 +5008,7 @@
         <v>231.426144771469</v>
       </c>
       <c r="L95" t="n">
-        <v>5.818368574605267</v>
+        <v>67.88096670372812</v>
       </c>
       <c r="M95" t="n">
         <v>4.856666214108337</v>
@@ -5032,7 +5032,7 @@
         <v>157.8796126989771</v>
       </c>
       <c r="D96" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E96" t="n">
         <v>77.76324000943811</v>
@@ -5044,7 +5044,7 @@
         <v>293.0351934073795</v>
       </c>
       <c r="H96" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I96" t="n">
         <v>9.636670399826031</v>
@@ -5056,7 +5056,7 @@
         <v>338.6725505228907</v>
       </c>
       <c r="L96" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M96" t="n">
         <v>4.131746271001546</v>
@@ -5080,7 +5080,7 @@
         <v>103.4264430825144</v>
       </c>
       <c r="D97" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E97" t="n">
         <v>83.85111130536161</v>
@@ -5092,7 +5092,7 @@
         <v>184.9903597438301</v>
       </c>
       <c r="H97" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I97" t="n">
         <v>17.48997495542148</v>
@@ -5104,7 +5104,7 @@
         <v>229.3573713296885</v>
       </c>
       <c r="L97" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M97" t="n">
         <v>7.184477928629056</v>
@@ -5128,7 +5128,7 @@
         <v>118.3414310429081</v>
       </c>
       <c r="D98" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E98" t="n">
         <v>70.8596389490985</v>
@@ -5140,7 +5140,7 @@
         <v>213.3334652729218</v>
       </c>
       <c r="H98" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I98" t="n">
         <v>26.6800073072583</v>
@@ -5152,7 +5152,7 @@
         <v>250.208394508343</v>
       </c>
       <c r="L98" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M98" t="n">
         <v>11.91899312441126</v>
@@ -5176,7 +5176,7 @@
         <v>118.2784177472451</v>
       </c>
       <c r="D99" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E99" t="n">
         <v>89.5979259940504</v>
@@ -5188,7 +5188,7 @@
         <v>217.5849565991747</v>
       </c>
       <c r="H99" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I99" t="n">
         <v>12.96195604822021</v>
@@ -5200,7 +5200,7 @@
         <v>252.3957487104571</v>
       </c>
       <c r="L99" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M99" t="n">
         <v>5.370612475290345</v>
@@ -5224,7 +5224,7 @@
         <v>120.8539841599577</v>
       </c>
       <c r="D100" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E100" t="n">
         <v>77.09153823959127</v>
@@ -5236,7 +5236,7 @@
         <v>216.0951576710529</v>
       </c>
       <c r="H100" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I100" t="n">
         <v>14.29787836459344</v>
@@ -5248,7 +5248,7 @@
         <v>263.9836410152362</v>
       </c>
       <c r="L100" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M100" t="n">
         <v>5.74549252819082</v>
@@ -5272,7 +5272,7 @@
         <v>144.6530225709117</v>
       </c>
       <c r="D101" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E101" t="n">
         <v>63.32462579562254</v>
@@ -5284,7 +5284,7 @@
         <v>236.8882670100766</v>
       </c>
       <c r="H101" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I101" t="n">
         <v>7.864856487757657</v>
@@ -5296,7 +5296,7 @@
         <v>306.9638572447735</v>
       </c>
       <c r="L101" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M101" t="n">
         <v>3.312734407296862</v>
@@ -5320,7 +5320,7 @@
         <v>105.3924696768625</v>
       </c>
       <c r="D102" t="n">
-        <v>30.42743652237478</v>
+        <v>354.9867594277057</v>
       </c>
       <c r="E102" t="n">
         <v>57.85724532603309</v>
@@ -5332,7 +5332,7 @@
         <v>194.97026238962</v>
       </c>
       <c r="H102" t="n">
-        <v>44.95598075070087</v>
+        <v>524.4864420915102</v>
       </c>
       <c r="I102" t="n">
         <v>6.765639583446634</v>
@@ -5344,7 +5344,7 @@
         <v>226.6352383670246</v>
       </c>
       <c r="L102" t="n">
-        <v>21.30157629422757</v>
+        <v>248.5183900993217</v>
       </c>
       <c r="M102" t="n">
         <v>2.904793578048549</v>
@@ -5368,7 +5368,7 @@
         <v>93.1000842047081</v>
       </c>
       <c r="D103" t="n">
-        <v>38.50273552791565</v>
+        <v>449.1985811590159</v>
       </c>
       <c r="E103" t="n">
         <v>59.59077962374466</v>
@@ -5380,7 +5380,7 @@
         <v>174.6121380270952</v>
       </c>
       <c r="H103" t="n">
-        <v>56.88708728286939</v>
+        <v>663.6826849668096</v>
       </c>
       <c r="I103" t="n">
         <v>11.21409587915215</v>
@@ -5392,7 +5392,7 @@
         <v>201.3817830432122</v>
       </c>
       <c r="L103" t="n">
-        <v>26.95491477835313</v>
+        <v>314.4740057474531</v>
       </c>
       <c r="M103" t="n">
         <v>4.918530825196965</v>
@@ -5416,7 +5416,7 @@
         <v>132.6959429466599</v>
       </c>
       <c r="D104" t="n">
-        <v>58.78164882401563</v>
+        <v>685.7859029468491</v>
       </c>
       <c r="E104" t="n">
         <v>63.81621563698273</v>
@@ -5428,7 +5428,7 @@
         <v>222.7073728537819</v>
       </c>
       <c r="H104" t="n">
-        <v>86.84881064770877</v>
+        <v>1013.236124223269</v>
       </c>
       <c r="I104" t="n">
         <v>22.16635603465551</v>
@@ -5440,7 +5440,7 @@
         <v>282.848520093489</v>
       </c>
       <c r="L104" t="n">
-        <v>41.15173410038997</v>
+        <v>480.1035645045498</v>
       </c>
       <c r="M104" t="n">
         <v>10.10806070311085</v>
@@ -5464,7 +5464,7 @@
         <v>204.1514365390094</v>
       </c>
       <c r="D105" t="n">
-        <v>18.13315644956781</v>
+        <v>211.5534919116244</v>
       </c>
       <c r="E105" t="n">
         <v>62.80214511603197</v>
@@ -5476,7 +5476,7 @@
         <v>340.6578864233264</v>
       </c>
       <c r="H105" t="n">
-        <v>26.79140688361196</v>
+        <v>312.5664136421395</v>
       </c>
       <c r="I105" t="n">
         <v>8.061925100148851</v>
@@ -5488,7 +5488,7 @@
         <v>433.9879594344714</v>
       </c>
       <c r="L105" t="n">
-        <v>12.69462234459331</v>
+        <v>148.1039273535886</v>
       </c>
       <c r="M105" t="n">
         <v>3.386837897068223</v>
@@ -5512,7 +5512,7 @@
         <v>106.2643884517331</v>
       </c>
       <c r="D106" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E106" t="n">
         <v>63.50181546880612</v>
@@ -5524,7 +5524,7 @@
         <v>187.5472954591065</v>
       </c>
       <c r="H106" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I106" t="n">
         <v>12.86023173316003</v>
@@ -5536,7 +5536,7 @@
         <v>227.9502702595354</v>
       </c>
       <c r="L106" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M106" t="n">
         <v>5.358155664010565</v>
@@ -5560,7 +5560,7 @@
         <v>116.6924386006449</v>
       </c>
       <c r="D107" t="n">
-        <v>11.4359773341941</v>
+        <v>133.4197355655978</v>
       </c>
       <c r="E107" t="n">
         <v>52.39703421224092</v>
@@ -5572,7 +5572,7 @@
         <v>195.8393101042336</v>
       </c>
       <c r="H107" t="n">
-        <v>16.89644727459794</v>
+        <v>197.1252182036426</v>
       </c>
       <c r="I107" t="n">
         <v>5.514641879065644</v>
@@ -5584,7 +5584,7 @@
         <v>250.5011251241263</v>
       </c>
       <c r="L107" t="n">
-        <v>8.006075158656847</v>
+        <v>93.40421018432987</v>
       </c>
       <c r="M107" t="n">
         <v>2.49847274169341</v>
@@ -5608,7 +5608,7 @@
         <v>94.91472058531016</v>
       </c>
       <c r="D108" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E108" t="n">
         <v>66.70008337674518</v>
@@ -5620,7 +5620,7 @@
         <v>173.0105362033449</v>
       </c>
       <c r="H108" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I108" t="n">
         <v>25.63974714271406</v>
@@ -5632,7 +5632,7 @@
         <v>202.6919139030045</v>
       </c>
       <c r="L108" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M108" t="n">
         <v>11.62861140221658</v>
@@ -5656,7 +5656,7 @@
         <v>127.3478586591296</v>
       </c>
       <c r="D109" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E109" t="n">
         <v>71.35164533692627</v>
@@ -5668,7 +5668,7 @@
         <v>206.2510898396974</v>
       </c>
       <c r="H109" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I109" t="n">
         <v>16.78291997596125</v>
@@ -5680,7 +5680,7 @@
         <v>276.4755316734583</v>
       </c>
       <c r="L109" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M109" t="n">
         <v>7.211435638100042</v>
@@ -5704,7 +5704,7 @@
         <v>123.7067564716503</v>
       </c>
       <c r="D110" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E110" t="n">
         <v>73.52526331706399</v>
@@ -5716,7 +5716,7 @@
         <v>204.4098265072502</v>
       </c>
       <c r="H110" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I110" t="n">
         <v>30.61841853972394</v>
@@ -5728,7 +5728,7 @@
         <v>264.7205587133439</v>
       </c>
       <c r="L110" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M110" t="n">
         <v>13.78513787190632</v>
@@ -5752,7 +5752,7 @@
         <v>174.1503498492459</v>
       </c>
       <c r="D111" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E111" t="n">
         <v>79.34160820387727</v>
@@ -5764,7 +5764,7 @@
         <v>312.8189638013492</v>
       </c>
       <c r="H111" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I111" t="n">
         <v>9.53842864646743</v>
@@ -5776,7 +5776,7 @@
         <v>374.0311939534125</v>
       </c>
       <c r="L111" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M111" t="n">
         <v>4.091392348111702</v>
@@ -5800,7 +5800,7 @@
         <v>140.8751239623647</v>
       </c>
       <c r="D112" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E112" t="n">
         <v>87.8901365311706</v>
@@ -5812,7 +5812,7 @@
         <v>246.8104291941083</v>
       </c>
       <c r="H112" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I112" t="n">
         <v>25.16317950140027</v>
@@ -5824,7 +5824,7 @@
         <v>310.914974406882</v>
       </c>
       <c r="L112" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M112" t="n">
         <v>10.91920190743463</v>
@@ -5848,7 +5848,7 @@
         <v>170.0778010234555</v>
       </c>
       <c r="D113" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E113" t="n">
         <v>81.52848644856734</v>
@@ -5860,7 +5860,7 @@
         <v>304.9711332041221</v>
       </c>
       <c r="H113" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I113" t="n">
         <v>12.29665914964821</v>
@@ -5872,7 +5872,7 @@
         <v>368.5941410892904</v>
       </c>
       <c r="L113" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M113" t="n">
         <v>5.230649859083895</v>
@@ -5896,7 +5896,7 @@
         <v>123.4326093035851</v>
       </c>
       <c r="D114" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="E114" t="n">
         <v>95.25001384940394</v>
@@ -5908,7 +5908,7 @@
         <v>227.4207862639645</v>
       </c>
       <c r="H114" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="I114" t="n">
         <v>22.82045322559458</v>
@@ -5920,7 +5920,7 @@
         <v>270.5321153362576</v>
       </c>
       <c r="L114" t="n">
-        <v>2999997</v>
+        <v>34999965</v>
       </c>
       <c r="M114" t="n">
         <v>10.21499974805128</v>
